--- a/config/wallet.xlsx
+++ b/config/wallet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840"/>
+    <workbookView windowWidth="30240" windowHeight="14360"/>
   </bookViews>
   <sheets>
     <sheet name="wallet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>address</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>snapshot_delegate</t>
+  </si>
+  <si>
+    <t>代币授权</t>
+  </si>
+  <si>
+    <t>approve</t>
   </si>
   <si>
     <t>https://eth.llamarpc.com</t>
@@ -1297,7 +1303,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1466,13 +1472,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="19.1538461538462" customWidth="1"/>
     <col min="3" max="3" width="18.7692307692308" customWidth="1"/>
@@ -1555,9 +1561,26 @@
         <v>38</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1595,7 +1618,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
